--- a/VM-param.xlsx
+++ b/VM-param.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{44B2D607-1073-4C4E-BAC9-A4002983048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCD2B39-7528-47AB-9139-BBF9B1A27797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VM-param" sheetId="1" r:id="rId1"/>
@@ -2065,7 +2065,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2899,11 +2899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D266" sqref="D266"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="C307" sqref="C307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3042,7 +3042,7 @@
         <v>22</v>
       </c>
       <c r="C10">
-        <v>5.17</v>
+        <v>5.13</v>
       </c>
       <c r="D10">
         <v>7.5</v>
@@ -6822,10 +6822,10 @@
         <v>559</v>
       </c>
       <c r="C280">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="D280">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">

--- a/VM-param.xlsx
+++ b/VM-param.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCD2B39-7528-47AB-9139-BBF9B1A27797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BFE234-B259-4BE4-89F4-8BBC82751115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VM-param" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2902,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="C307" sqref="C307"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="D281" sqref="D281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3423,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5005,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5019,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5033,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>33</v>
+        <v>37.65</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5803,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>12</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6573,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -6587,7 +6600,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
@@ -6601,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -6629,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -6643,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
@@ -6657,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="D268">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
@@ -7088,10 +7101,10 @@
         <v>597</v>
       </c>
       <c r="C299">
-        <v>1.1679999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D299">
-        <v>4.9859999999999998</v>
+        <v>4.7699999999999996</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
